--- a/data/trans_bre/P19C03-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19C03-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P19C03-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19C03-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,07</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,16</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,05</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,17</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,49%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,37%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,95%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,8%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,99; 3,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,96; 2,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,88; 2,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,74; 3,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,73; 10,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,42; 9,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,72; 10,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,86; 25,67</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,87</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,48</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,91%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,3%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,36%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,46%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,98; 5,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,84; 5,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,9; 1,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,88; 3,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,8; 15,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,75; 16,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,11; 5,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,26; 16,97</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,5</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,7%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,42%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,95%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,92; 4,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,29; 7,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,23; 2,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,19; 3,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,07; 11,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,08; 23,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,35; 6,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,68; 17,31</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,56</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,5%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,74%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,03%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,61; 6,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,61; 2,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,85; 6,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,63; 6,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,77; 21,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,94; 9,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,6; 26,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,61; 42,75</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,94</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,41%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,16%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,73%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,91; 16,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,73; 8,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,23; 10,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,61; 5,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,25; 97,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,79; 31,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,84; 58,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,55; 32,72</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,06%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,43%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,22%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,68; 8,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,52; 5,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,97; 7,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,44; 2,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,96; 112,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,84; 50,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,38; 56,85</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,99; 25,4</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,57%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,64%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,23%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,38; 2,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,67; 1,39</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,68; 0,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,75; 0,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,27; 9,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,64; 4,87</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,85; 3,53</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,52; 4,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C03-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19C03-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,17</t>
+          <t>-4,83</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-28,8%</t>
+          <t>-22,65%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,74; 3,64</t>
+          <t>-14,78; 5,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-58,86; 25,67</t>
+          <t>-55,55; 40,95</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,48</t>
+          <t>-5,93</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-15,46%</t>
+          <t>-25,86%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,88; 3,12</t>
+          <t>-14,62; 0,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-38,26; 16,97</t>
+          <t>-53,78; 3,47</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-4,95%</t>
+          <t>-5,84%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 3,38</t>
+          <t>-6,31; 3,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-24,68; 17,31</t>
+          <t>-24,53; 16,67</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>8,53</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>54,51%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 6,96</t>
+          <t>-1,19; 25,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-15,61; 42,75</t>
+          <t>-6,54; 375,39</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>8,16%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 5,46</t>
+          <t>-2,52; 5,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-12,55; 32,72</t>
+          <t>-11,66; 33,25</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,92</t>
+          <t>8,3</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,38</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>-2,63</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>40,06%</t>
+          <t>67,13%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>27,89%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>15,43%</t>
+          <t>18,27%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-3,22%</t>
+          <t>-19,91%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 8,39</t>
+          <t>1,76; 14,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 5,06</t>
+          <t>-2,67; 10,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 7,43</t>
+          <t>-3,78; 10,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 2,47</t>
+          <t>-12,33; 4,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 112,09</t>
+          <t>8,25; 156,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-22,84; 50,77</t>
+          <t>-13,07; 90,1</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,38; 56,85</t>
+          <t>-16,16; 70,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-35,99; 25,4</t>
+          <t>-73,5; 34,72</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,28</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>-0,03%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-3,57%</t>
+          <t>-15,67%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-4,64%</t>
+          <t>22,77%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-7,23%</t>
+          <t>-1,11%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-5,65; 4,79</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-7,13; 3,43</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-4,59; 8,29</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-3,68; 2,48</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-67,09; 181,39</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-58,6; 72,73</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-36,7; 117,61</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-36,47; 41,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-1,07</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-1,28</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>-0,5</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0,23%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>-3,57%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-4,64%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-2,79%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>-2,38; 2,75</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>-3,67; 1,39</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>-3,68; 0,93</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-3,75; 0,84</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-3,86; 3,95</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>-7,27; 9,11</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>-11,64; 4,87</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>-12,85; 3,53</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-18,52; 4,88</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-19,69; 25,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P19C03-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19C03-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,99; 3,3</t>
+          <t>-10,54; 3,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,96; 2,77</t>
+          <t>-10,64; 2,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 2,8</t>
+          <t>-10,79; 2,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,78; 5,62</t>
+          <t>-15,83; 4,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-25,73; 10,26</t>
+          <t>-25,82; 10,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-29,42; 9,82</t>
+          <t>-29,03; 8,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-32,72; 10,57</t>
+          <t>-33,58; 10,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-55,55; 40,95</t>
+          <t>-57,16; 27,15</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 5,55</t>
+          <t>-6,12; 5,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 5,36</t>
+          <t>-5,93; 5,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 1,57</t>
+          <t>-9,32; 2,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,62; 0,75</t>
+          <t>-14,12; 0,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-13,8; 15,4</t>
+          <t>-14,37; 14,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,75; 16,57</t>
+          <t>-16,1; 17,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-27,11; 5,02</t>
+          <t>-25,37; 6,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-53,78; 3,47</t>
+          <t>-53,62; 3,65</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 4,18</t>
+          <t>-7,81; 4,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 7,22</t>
+          <t>-4,4; 6,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 2,01</t>
+          <t>-9,27; 1,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 3,15</t>
+          <t>-6,12; 3,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-17,07; 11,81</t>
+          <t>-18,67; 12,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 23,31</t>
+          <t>-10,42; 23,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-25,35; 6,33</t>
+          <t>-25,31; 5,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-24,53; 16,67</t>
+          <t>-24,31; 15,91</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 6,8</t>
+          <t>-6,71; 5,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 2,93</t>
+          <t>-8,48; 3,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 6,69</t>
+          <t>-4,19; 7,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 25,83</t>
+          <t>0,11; 24,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-16,77; 21,43</t>
+          <t>-17,21; 19,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,94; 9,19</t>
+          <t>-22,98; 11,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-15,6; 26,43</t>
+          <t>-13,69; 29,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 375,39</t>
+          <t>-2,2; 301,17</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,91; 16,72</t>
+          <t>2,48; 16,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 8,54</t>
+          <t>-5,54; 8,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 10,25</t>
+          <t>-2,12; 10,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 5,66</t>
+          <t>-2,53; 5,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,25; 97,56</t>
+          <t>9,09; 93,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,79; 31,86</t>
+          <t>-16,59; 33,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 58,89</t>
+          <t>-9,48; 62,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,66; 33,25</t>
+          <t>-11,44; 34,4</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,76; 14,66</t>
+          <t>2,04; 14,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 10,84</t>
+          <t>-2,54; 10,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 10,64</t>
+          <t>-3,23; 9,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-12,33; 4,37</t>
+          <t>-11,24; 3,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,25; 156,68</t>
+          <t>11,0; 156,87</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-13,07; 90,1</t>
+          <t>-12,79; 87,59</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,16; 70,25</t>
+          <t>-15,47; 63,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-73,5; 34,72</t>
+          <t>-74,26; 31,61</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 4,79</t>
+          <t>-5,54; 4,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 3,43</t>
+          <t>-6,53; 3,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 8,29</t>
+          <t>-5,25; 9,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 2,48</t>
+          <t>-3,5; 2,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-67,09; 181,39</t>
+          <t>-64,27; 186,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-58,6; 72,73</t>
+          <t>-57,62; 81,26</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-36,7; 117,61</t>
+          <t>-39,49; 136,5</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-36,47; 41,81</t>
+          <t>-34,54; 49,06</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 2,75</t>
+          <t>-2,45; 2,75</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 1,39</t>
+          <t>-3,71; 1,21</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 0,93</t>
+          <t>-3,69; 1,14</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 3,95</t>
+          <t>-3,8; 3,76</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 9,11</t>
+          <t>-7,47; 9,06</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 4,87</t>
+          <t>-11,76; 4,17</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-12,85; 3,53</t>
+          <t>-13,26; 4,17</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-19,69; 25,27</t>
+          <t>-19,72; 24,24</t>
         </is>
       </c>
     </row>
